--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5581,7 +5581,11 @@
           <t>JAPAN: volume of this week had been decreased than last week due to:</t>
         </is>
       </c>
-      <c r="AAF22" s="92" t="n"/>
+      <c r="AAF22" s="92" t="inlineStr">
+        <is>
+          <t>JAPAN: volume of this week had been increased than last week due to:</t>
+        </is>
+      </c>
       <c r="AAG22" s="92" t="n"/>
       <c r="AAH22" s="92" t="n"/>
       <c r="AAI22" s="92" t="n"/>
@@ -5784,7 +5788,7 @@
       </c>
       <c r="AAF23" s="92" t="inlineStr">
         <is>
-          <t>JAPAN: volume of this week is decreased than last week due to:</t>
+          <t xml:space="preserve">FAREASTERN increased 3 teus, VPIC increased 5 teus, </t>
         </is>
       </c>
       <c r="AAG23" s="92" t="n"/>
@@ -5920,7 +5924,7 @@
       </c>
       <c r="AAF24" s="92" t="inlineStr">
         <is>
-          <t>Far Eastern  (Daniel) decreased 10 teus, Million (ITI Daiun) decreased 2 teus</t>
+          <t>No cargo: FPREMOU001BORAMTEKBUENOSWENEO</t>
         </is>
       </c>
       <c r="AAG24" s="92" t="n"/>
@@ -6379,7 +6383,7 @@
       </c>
       <c r="AAF27" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">THREAD (Juna) decreased 10 teus, SHINFUNG ( ITI TPE) decreased 4 teus, </t>
+          <t xml:space="preserve">THREAD decreased 10 teus, LEESHIN decreased 4 teus, LIENA decreased 2 teus, </t>
         </is>
       </c>
       <c r="AAG27" s="92" t="n"/>
@@ -6544,7 +6548,7 @@
       </c>
       <c r="AAF28" s="92" t="inlineStr">
         <is>
-          <t>Dieu Thuong (ITI TPE), Lovetex (Juna), V.I.P (ITI TPE) decreased 2 teus</t>
+          <t xml:space="preserve">No cargo: CHANGHONG , GIAVICO , PHTHAP02 , KIMBUU , POWERBEST , LAMNGHIEP , LILOIN01 , </t>
         </is>
       </c>
       <c r="AAG28" s="92" t="n"/>
@@ -6961,7 +6965,7 @@
       <c r="ZV30" s="66" t="n"/>
       <c r="AAF30" s="92" t="inlineStr">
         <is>
-          <t>EUR: volume of this week had been increased than last week due to:</t>
+          <t>EURO: volume of this week had been decreased than last week due to:</t>
         </is>
       </c>
       <c r="AAG30" s="66" t="n"/>
@@ -7300,7 +7304,7 @@
       <c r="ZV31" s="66" t="n"/>
       <c r="AAF31" s="92" t="inlineStr">
         <is>
-          <t>TES increased 6 teus, MOVACO increased 2 teus,</t>
+          <t xml:space="preserve">QUOCTETK decreased 3 teus, </t>
         </is>
       </c>
       <c r="AAG31" s="66" t="n"/>
@@ -7634,7 +7638,7 @@
       <c r="ZW32" s="66" t="n"/>
       <c r="AAF32" s="92" t="inlineStr">
         <is>
-          <t>SHEICO ( NEELE VAT) increased 2  teus, TK (TOP) increased 18 teus</t>
+          <t xml:space="preserve">No cargo: CN0171 , TLAPTHANH , COTYTN524 , ITIHCM , TSCAMAU , COTYCO92 , MINHDANG , </t>
         </is>
       </c>
       <c r="AAG32" s="92" t="n"/>
@@ -7900,7 +7904,11 @@
       <c r="ZU33" s="66" t="n"/>
       <c r="ZV33" s="66" t="n"/>
       <c r="ZW33" s="66" t="n"/>
-      <c r="AAF33" s="92" t="n"/>
+      <c r="AAF33" s="92" t="inlineStr">
+        <is>
+          <t>MED: volume of this week had been increased than last week due to:</t>
+        </is>
+      </c>
       <c r="AAG33" s="92" t="n"/>
       <c r="AAH33" s="92" t="n"/>
       <c r="AAI33" s="92" t="n"/>
@@ -8227,7 +8235,7 @@
       <c r="ZW34" s="66" t="n"/>
       <c r="AAF34" s="92" t="inlineStr">
         <is>
-          <t>MED: volume of this week is no change.</t>
+          <t xml:space="preserve">SAVEV001 increased 1 teus, DAIWALANCE increased 1 teus, ATCOLT04 increased 4 teus, </t>
         </is>
       </c>
       <c r="AAG34" s="66" t="n"/>
@@ -8548,7 +8556,7 @@
       <c r="ZW35" s="66" t="n"/>
       <c r="AAF35" s="92" t="inlineStr">
         <is>
-          <t>ATLANTIC (FAIR) still 1 teu, DAIWALANCE (JACK) still 1 teu</t>
+          <t xml:space="preserve">No cargo: </t>
         </is>
       </c>
       <c r="AAG35" s="75" t="n"/>
@@ -17770,11 +17778,19 @@
         <v>2</v>
       </c>
       <c r="ZY98" s="58" t="n"/>
-      <c r="AAF98" s="58" t="n"/>
-      <c r="AAG98" s="58" t="n"/>
+      <c r="AAF98" s="58" t="n">
+        <v>16</v>
+      </c>
+      <c r="AAG98" s="58" t="n">
+        <v>30</v>
+      </c>
       <c r="AAH98" s="58" t="n"/>
-      <c r="AAI98" s="58" t="n"/>
-      <c r="AAJ98" s="58" t="n"/>
+      <c r="AAI98" s="58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AAJ98" s="58" t="n">
+        <v>16</v>
+      </c>
       <c r="AAK98" s="58" t="n"/>
       <c r="AAL98" s="58" t="n"/>
       <c r="AAM98" s="58" t="n"/>
@@ -18877,12 +18893,20 @@
       <c r="ZY99" s="58" t="n">
         <v>2.3</v>
       </c>
-      <c r="AAF99" s="58" t="n"/>
+      <c r="AAF99" s="58" t="n">
+        <v>1</v>
+      </c>
       <c r="AAG99" s="58" t="n"/>
-      <c r="AAH99" s="58" t="n"/>
-      <c r="AAI99" s="58" t="n"/>
+      <c r="AAH99" s="58" t="n">
+        <v>1</v>
+      </c>
+      <c r="AAI99" s="58" t="n">
+        <v>2</v>
+      </c>
       <c r="AAJ99" s="58" t="n"/>
-      <c r="AAK99" s="58" t="n"/>
+      <c r="AAK99" s="58" t="n">
+        <v>6.4</v>
+      </c>
       <c r="AAL99" s="58" t="n"/>
       <c r="AAM99" s="58" t="n"/>
       <c r="AAN99" s="58" t="n"/>
@@ -20002,12 +20026,20 @@
       <c r="ZW100" s="58" t="n"/>
       <c r="ZX100" s="58" t="n"/>
       <c r="ZY100" s="58" t="n"/>
-      <c r="AAF100" s="58" t="n"/>
+      <c r="AAF100" s="58" t="n">
+        <v>13</v>
+      </c>
       <c r="AAG100" s="58" t="n"/>
-      <c r="AAH100" s="58" t="n"/>
-      <c r="AAI100" s="58" t="n"/>
+      <c r="AAH100" s="58" t="n">
+        <v>86.73999999999999</v>
+      </c>
+      <c r="AAI100" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAJ100" s="58" t="n"/>
-      <c r="AAK100" s="58" t="n"/>
+      <c r="AAK100" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAL100" s="58" t="n"/>
       <c r="AAM100" s="58" t="n"/>
       <c r="AAN100" s="59" t="n"/>
@@ -32450,11 +32482,19 @@
       <c r="AAI109" s="58" t="n"/>
       <c r="AAJ109" s="58" t="n"/>
       <c r="AAK109" s="58" t="n"/>
-      <c r="AAL109" s="58" t="n"/>
-      <c r="AAM109" s="58" t="n"/>
+      <c r="AAL109" s="58" t="n">
+        <v>11</v>
+      </c>
+      <c r="AAM109" s="58" t="n">
+        <v>17</v>
+      </c>
       <c r="AAN109" s="58" t="n"/>
-      <c r="AAO109" s="58" t="n"/>
-      <c r="AAP109" s="58" t="n"/>
+      <c r="AAO109" s="58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AAP109" s="58" t="n">
+        <v>8</v>
+      </c>
       <c r="AAQ109" s="58" t="n"/>
       <c r="AAR109" s="15" t="n"/>
       <c r="AAS109" s="15" t="n"/>
@@ -33854,12 +33894,20 @@
       <c r="AAI110" s="58" t="n"/>
       <c r="AAJ110" s="58" t="n"/>
       <c r="AAK110" s="58" t="n"/>
-      <c r="AAL110" s="58" t="n"/>
+      <c r="AAL110" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAM110" s="58" t="n"/>
-      <c r="AAN110" s="58" t="n"/>
-      <c r="AAO110" s="58" t="n"/>
+      <c r="AAN110" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAO110" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAP110" s="58" t="n"/>
-      <c r="AAQ110" s="58" t="n"/>
+      <c r="AAQ110" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAR110" s="15" t="n"/>
       <c r="AAS110" s="15" t="n"/>
     </row>
@@ -35258,12 +35306,20 @@
       <c r="AAI111" s="58" t="n"/>
       <c r="AAJ111" s="58" t="n"/>
       <c r="AAK111" s="58" t="n"/>
-      <c r="AAL111" s="58" t="n"/>
+      <c r="AAL111" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAM111" s="58" t="n"/>
-      <c r="AAN111" s="58" t="n"/>
-      <c r="AAO111" s="58" t="n"/>
+      <c r="AAN111" s="58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AAO111" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAP111" s="58" t="n"/>
-      <c r="AAQ111" s="58" t="n"/>
+      <c r="AAQ111" s="58" t="n">
+        <v>0</v>
+      </c>
       <c r="AAR111" s="15" t="n"/>
       <c r="AAS111" s="15" t="n"/>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5924,7 +5924,7 @@
       </c>
       <c r="AAF24" s="92" t="inlineStr">
         <is>
-          <t>No cargo: FPREMOU001BORAMTEKBUENOSWENEO</t>
+          <t>No cargo: FPREMOU001SWENEOBORAMTEKBUENO</t>
         </is>
       </c>
       <c r="AAG24" s="92" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="AAF28" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: CHANGHONG , GIAVICO , PHTHAP02 , KIMBUU , POWERBEST , LAMNGHIEP , LILOIN01 , </t>
+          <t xml:space="preserve">No cargo: GIAVICO , CHANGHONG , PHTHAP02 , LILOIN01 , LAMNGHIEP , CNACHAU , KIMBUU , </t>
         </is>
       </c>
       <c r="AAG28" s="92" t="n"/>
@@ -7638,7 +7638,7 @@
       <c r="ZW32" s="66" t="n"/>
       <c r="AAF32" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: CN0171 , TLAPTHANH , COTYTN524 , ITIHCM , TSCAMAU , COTYCO92 , MINHDANG , </t>
+          <t xml:space="preserve">No cargo: CN0171 , COTYTN524 , TLAPTHANH , ITIHCM , MINHDANG , TSCAMAU , COTYCO92 , </t>
         </is>
       </c>
       <c r="AAG32" s="92" t="n"/>
@@ -8235,7 +8235,7 @@
       <c r="ZW34" s="66" t="n"/>
       <c r="AAF34" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">SAVEV001 increased 1 teus, DAIWALANCE increased 1 teus, ATCOLT04 increased 4 teus, </t>
+          <t xml:space="preserve">DAIWALANCE increased 1 teus, SAVEV001 increased 1 teus, ATCOLT04 increased 4 teus, </t>
         </is>
       </c>
       <c r="AAG34" s="66" t="n"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5924,7 +5924,7 @@
       </c>
       <c r="AAF24" s="92" t="inlineStr">
         <is>
-          <t>No cargo: FPREMOU001SWENEOBORAMTEKBUENO</t>
+          <t>No cargo: FPREMOU001BUENOSWENEOBORAMTEK</t>
         </is>
       </c>
       <c r="AAG24" s="92" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="AAF28" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: GIAVICO , CHANGHONG , PHTHAP02 , LILOIN01 , LAMNGHIEP , CNACHAU , KIMBUU , </t>
+          <t xml:space="preserve">No cargo: GIAVICO , CHANGHONG , PHTHAP02 , LILOIN01 , KIMBUU , POWERBEST , LAMNGHIEP , </t>
         </is>
       </c>
       <c r="AAG28" s="92" t="n"/>
@@ -7638,7 +7638,7 @@
       <c r="ZW32" s="66" t="n"/>
       <c r="AAF32" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: CN0171 , COTYTN524 , TLAPTHANH , ITIHCM , MINHDANG , TSCAMAU , COTYCO92 , </t>
+          <t xml:space="preserve">No cargo: CN0171 , ITIHCM , TLAPTHANH , COTYTN524 , MINHDANG , COTYCO92 , TSCAMAU , </t>
         </is>
       </c>
       <c r="AAG32" s="92" t="n"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -5924,7 +5924,7 @@
       </c>
       <c r="AAF24" s="92" t="inlineStr">
         <is>
-          <t>No cargo: FPREMOU001BUENOSWENEOBORAMTEK</t>
+          <t>Far Eastern  (Daniel) decreased 10 teus, Million (ITI Daiun) decreased 2 teus</t>
         </is>
       </c>
       <c r="AAG24" s="92" t="n"/>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="AAF27" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">THREAD decreased 10 teus, LEESHIN decreased 4 teus, LIENA decreased 2 teus, </t>
+          <t xml:space="preserve">THREAD decreased 10 teus, LEESHIN decreased 4 teus, PHTHAP02 decreased 2 teus, LIENA decreased 2 teus, GIAVICO decreased 2 teus, CHANGHONG decreased 2 teus, KIMBUU decreased 1 teus, LILOIN01 decreased 1 teus, POWERBEST decreased 1 teus, LAMNGHIEP decreased 1 teus, </t>
         </is>
       </c>
       <c r="AAG27" s="92" t="n"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="AAF28" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: GIAVICO , CHANGHONG , PHTHAP02 , LILOIN01 , KIMBUU , POWERBEST , LAMNGHIEP , </t>
+          <t>Dieu Thuong (ITI TPE), Lovetex (Juna), V.I.P (ITI TPE) decreased 2 teus</t>
         </is>
       </c>
       <c r="AAG28" s="92" t="n"/>
@@ -7304,7 +7304,7 @@
       <c r="ZV31" s="66" t="n"/>
       <c r="AAF31" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">QUOCTETK decreased 3 teus, </t>
+          <t xml:space="preserve">CN0171 decreased 4 teus, QUOCTETK decreased 3 teus, ITIHCM decreased 2 teus, TLAPTHANH decreased 2 teus, COTYTN524 decreased 2 teus, </t>
         </is>
       </c>
       <c r="AAG31" s="66" t="n"/>
@@ -7638,7 +7638,7 @@
       <c r="ZW32" s="66" t="n"/>
       <c r="AAF32" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: CN0171 , ITIHCM , TLAPTHANH , COTYTN524 , MINHDANG , COTYCO92 , TSCAMAU , </t>
+          <t>SHEICO ( NEELE VAT) increased 2  teus, TK (TOP) increased 18 teus</t>
         </is>
       </c>
       <c r="AAG32" s="92" t="n"/>
@@ -8556,7 +8556,7 @@
       <c r="ZW35" s="66" t="n"/>
       <c r="AAF35" s="92" t="inlineStr">
         <is>
-          <t xml:space="preserve">No cargo: </t>
+          <t>ATLANTIC (FAIR) still 1 teu, DAIWALANCE (JACK) still 1 teu</t>
         </is>
       </c>
       <c r="AAG35" s="75" t="n"/>
